--- a/24_04_2016.xlsx
+++ b/24_04_2016.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <t xml:space="preserve">График 24.04.2016 год</t>
   </si>
@@ -237,40 +237,43 @@
     <t xml:space="preserve">Д. Бычково|55.661531,35.718776</t>
   </si>
   <si>
+    <t xml:space="preserve">Храброво|55.444446,35.679901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Д. Батынки |55.673397,35.698187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Д. Мышкино|55.667706,35.681721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Д. Авдотьино|55.65371,35.834542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Д. Красновидово ул. Зеленая д. 1,2|55.5798,35.87388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Д. Красновидово ул. Центральная  д.6,8|55.585611,35.874176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Д. Мышкино ул. Титовка д. 15,17|55.668523,35.6835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">д/д Павлин ул. Титовка д. 2а|55.670057, 35.684718   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ул. Советская д. 18А  19|55.608749, 35.817363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ул. Армейская|55.611577,35.818831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кл. Горетово|55.616,35.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Д. Лубенки|55.64475,35.757134</t>
+  </si>
+  <si>
     <t xml:space="preserve">Храброво|55.444446,35.659901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Д. Батынки |55.673397,35.698187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Д. Мышкино|55.667706,35.681721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Д. Авдотьино|55.65371,35.834542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Д. Красновидово ул. Зеленая д. 1,2|55.5798,35.87388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Д. Красновидово ул. Центральная  д.6,8|55.585611,35.874176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Д. Мышкино ул. Титовка д. 15,17|55.668523,35.6835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">д/д Павлин ул. Титовка д. 2а|55.670057, 35.684718   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ул. Советская д. 18А  19|55.608749, 35.817363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ул. Армейская|55.611577,35.818831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кл. Горетово|55.616,35.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Д. Лубенки|55.64475,35.757134</t>
   </si>
   <si>
     <t xml:space="preserve">Итого:</t>
@@ -601,7 +604,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -784,17 +787,17 @@
   </sheetPr>
   <dimension ref="B1:E34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="44.1336032388664"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="48.0971659919028"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="48.5263157894737"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1094,19 +1097,19 @@
   </sheetPr>
   <dimension ref="B1:E37"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="55.3805668016194"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="25" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="55.8097165991903"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="25" width="42.5263157894737"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1230,7 +1233,7 @@
       </c>
       <c r="E9" s="38"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="20" t="s">
         <v>55</v>
       </c>
@@ -1364,7 +1367,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="19" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="23"/>
@@ -1451,7 +1454,7 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C37" s="50" t="n">
         <f aca="false">C31+E31</f>
@@ -1476,7 +1479,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
